--- a/Ver2/Notion data/Chấm công CẦN THƠ.xlsx
+++ b/Ver2/Notion data/Chấm công CẦN THƠ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GB21"/>
+  <dimension ref="A1:GK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,165 +1191,210 @@
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
+          <t>properties.Ngày 23.select.id</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 23.select.name</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 23.select.color</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
           <t>properties.Ngày 7.select.id</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.name</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.color</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 22.select.id</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 22.select.name</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 22.select.color</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.id</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.name</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.color</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.id</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.name</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.color</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.id</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.name</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.color</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.id</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.name</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.color</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.id</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.name</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.color</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.id</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.name</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.color</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.select.id</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.select.name</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.select.color</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.id</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.name</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.color</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.id</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.name</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.color</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.id</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.name</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.color</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.id</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.name</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.color</t>
         </is>
@@ -1363,17 +1408,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>373b8fa6-9965-4380-865f-6442b725f86f</t>
+          <t>bd1b93ae-92b3-44a4-b092-6e7e613e0a50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-19T11:49:00.000Z</t>
+          <t>2024-07-24T15:27:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-19T11:49:00.000Z</t>
+          <t>2024-07-24T15:27:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1386,7 +1431,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/373b8fa699654380865f6442b725f86f</t>
+          <t>https://www.notion.so/bd1b93ae92b344a4b0926e7e613e0a50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -1397,7 +1442,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1407,7 +1452,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -1520,7 +1565,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'id': '35f44955-2223-488a-8274-8db6f726d9f7'}]</t>
         </is>
       </c>
       <c r="AR2" t="b">
@@ -1785,7 +1830,7 @@
       </c>
       <c r="DJ2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK2" t="inlineStr">
@@ -1882,6 +1927,15 @@
       <c r="FZ2" t="inlineStr"/>
       <c r="GA2" t="inlineStr"/>
       <c r="GB2" t="inlineStr"/>
+      <c r="GC2" t="inlineStr"/>
+      <c r="GD2" t="inlineStr"/>
+      <c r="GE2" t="inlineStr"/>
+      <c r="GF2" t="inlineStr"/>
+      <c r="GG2" t="inlineStr"/>
+      <c r="GH2" t="inlineStr"/>
+      <c r="GI2" t="inlineStr"/>
+      <c r="GJ2" t="inlineStr"/>
+      <c r="GK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1891,17 +1945,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9aee3837-80c2-4463-90f5-1661bf5a5232</t>
+          <t>e5a77b08-67c1-454a-98e0-893f203dda2f</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-08T16:51:00.000Z</t>
+          <t>2024-07-24T15:27:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-22T14:35:00.000Z</t>
+          <t>2024-07-24T15:32:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1914,7 +1968,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9aee383780c2446390f51661bf5a5232</t>
+          <t>https://www.notion.so/e5a77b0867c1454a98e0893f203dda2f</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1935,7 +1989,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -2048,7 +2102,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>[{'id': 'e0ac0375-0b3a-4c88-a613-cb8df33ebe6b'}]</t>
+          <t>[{'id': '3db76400-46c0-4adb-9d9c-51542f2de2f9'}]</t>
         </is>
       </c>
       <c r="AR3" t="b">
@@ -2658,6 +2712,51 @@
         </is>
       </c>
       <c r="GB3" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC3" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD3" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE3" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF3" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG3" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH3" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI3" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ3" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK3" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -2671,17 +2770,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>069b7f74-e198-467c-be72-007b67dbba86</t>
+          <t>9aee3837-80c2-4463-90f5-1661bf5a5232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-08T16:50:00.000Z</t>
+          <t>2024-07-08T16:51:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-22T14:35:00.000Z</t>
+          <t>2024-07-24T15:38:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -2694,7 +2793,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/069b7f74e198467cbe72007b67dbba86</t>
+          <t>https://www.notion.so/9aee383780c2446390f51661bf5a5232</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -2828,7 +2927,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>[{'id': 'ea0572af-f8c9-430d-9d95-23303a4ce4cd'}]</t>
+          <t>[{'id': 'e0ac0375-0b3a-4c88-a613-cb8df33ebe6b'}]</t>
         </is>
       </c>
       <c r="AR4" t="b">
@@ -3438,6 +3537,51 @@
         </is>
       </c>
       <c r="GB4" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC4" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD4" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE4" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF4" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG4" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH4" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI4" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ4" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK4" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -3451,7 +3595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9bc0d115-cb53-451f-8152-deb5d42205a4</t>
+          <t>069b7f74-e198-467c-be72-007b67dbba86</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3461,7 +3605,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-22T14:35:00.000Z</t>
+          <t>2024-07-24T15:38:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -3474,7 +3618,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9bc0d115cb53451f8152deb5d42205a4</t>
+          <t>https://www.notion.so/069b7f74e198467cbe72007b67dbba86</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -3608,7 +3752,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>[{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]</t>
+          <t>[{'id': 'ea0572af-f8c9-430d-9d95-23303a4ce4cd'}]</t>
         </is>
       </c>
       <c r="AR5" t="b">
@@ -4218,6 +4362,51 @@
         </is>
       </c>
       <c r="GB5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH5" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI5" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ5" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK5" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -4231,7 +4420,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>89a829b4-000d-4d13-988b-81632b4469a7</t>
+          <t>9bc0d115-cb53-451f-8152-deb5d42205a4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4241,7 +4430,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-22T14:35:00.000Z</t>
+          <t>2024-07-24T15:38:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -4254,7 +4443,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89a829b4000d4d13988b81632b4469a7</t>
+          <t>https://www.notion.so/9bc0d115cb53451f8152deb5d42205a4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -4388,7 +4577,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>[{'id': '7e29a9ca-b017-4ad6-a6b0-6ed9330137bc'}]</t>
+          <t>[{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]</t>
         </is>
       </c>
       <c r="AR6" t="b">
@@ -4998,6 +5187,51 @@
         </is>
       </c>
       <c r="GB6" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC6" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD6" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE6" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF6" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG6" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH6" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI6" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ6" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK6" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -5011,7 +5245,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0b748401-f8ec-4af9-95c7-c8e1062bb800</t>
+          <t>89a829b4-000d-4d13-988b-81632b4469a7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5021,7 +5255,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-08T16:50:00.000Z</t>
+          <t>2024-07-24T15:38:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -5034,7 +5268,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/0b748401f8ec4af995c7c8e1062bb800</t>
+          <t>https://www.notion.so/89a829b4000d4d13988b81632b4469a7</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -5055,7 +5289,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -5168,7 +5402,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>[{'id': '90bc02c2-bd1e-4c33-884a-38a1db528c78'}]</t>
+          <t>[{'id': '7e29a9ca-b017-4ad6-a6b0-6ed9330137bc'}]</t>
         </is>
       </c>
       <c r="AR7" t="b">
@@ -5433,7 +5667,7 @@
       </c>
       <c r="DJ7" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK7" t="inlineStr">
@@ -5467,69 +5701,366 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR7" t="inlineStr"/>
-      <c r="DS7" t="inlineStr"/>
-      <c r="DT7" t="inlineStr"/>
-      <c r="DU7" t="inlineStr"/>
-      <c r="DV7" t="inlineStr"/>
-      <c r="DW7" t="inlineStr"/>
-      <c r="DX7" t="inlineStr"/>
-      <c r="DY7" t="inlineStr"/>
-      <c r="DZ7" t="inlineStr"/>
-      <c r="EA7" t="inlineStr"/>
-      <c r="EB7" t="inlineStr"/>
-      <c r="EC7" t="inlineStr"/>
-      <c r="ED7" t="inlineStr"/>
-      <c r="EE7" t="inlineStr"/>
-      <c r="EF7" t="inlineStr"/>
-      <c r="EG7" t="inlineStr"/>
-      <c r="EH7" t="inlineStr"/>
-      <c r="EI7" t="inlineStr"/>
-      <c r="EJ7" t="inlineStr"/>
-      <c r="EK7" t="inlineStr"/>
-      <c r="EL7" t="inlineStr"/>
-      <c r="EM7" t="inlineStr"/>
-      <c r="EN7" t="inlineStr"/>
-      <c r="EO7" t="inlineStr"/>
-      <c r="EP7" t="inlineStr"/>
-      <c r="EQ7" t="inlineStr"/>
-      <c r="ER7" t="inlineStr"/>
-      <c r="ES7" t="inlineStr"/>
-      <c r="ET7" t="inlineStr"/>
-      <c r="EU7" t="inlineStr"/>
-      <c r="EV7" t="inlineStr"/>
-      <c r="EW7" t="inlineStr"/>
-      <c r="EX7" t="inlineStr"/>
-      <c r="EY7" t="inlineStr"/>
-      <c r="EZ7" t="inlineStr"/>
-      <c r="FA7" t="inlineStr"/>
-      <c r="FB7" t="inlineStr"/>
-      <c r="FC7" t="inlineStr"/>
-      <c r="FD7" t="inlineStr"/>
-      <c r="FE7" t="inlineStr"/>
-      <c r="FF7" t="inlineStr"/>
-      <c r="FG7" t="inlineStr"/>
-      <c r="FH7" t="inlineStr"/>
-      <c r="FI7" t="inlineStr"/>
-      <c r="FJ7" t="inlineStr"/>
-      <c r="FK7" t="inlineStr"/>
-      <c r="FL7" t="inlineStr"/>
-      <c r="FM7" t="inlineStr"/>
-      <c r="FN7" t="inlineStr"/>
-      <c r="FO7" t="inlineStr"/>
-      <c r="FP7" t="inlineStr"/>
-      <c r="FQ7" t="inlineStr"/>
-      <c r="FR7" t="inlineStr"/>
-      <c r="FS7" t="inlineStr"/>
-      <c r="FT7" t="inlineStr"/>
-      <c r="FU7" t="inlineStr"/>
-      <c r="FV7" t="inlineStr"/>
-      <c r="FW7" t="inlineStr"/>
-      <c r="FX7" t="inlineStr"/>
-      <c r="FY7" t="inlineStr"/>
-      <c r="FZ7" t="inlineStr"/>
-      <c r="GA7" t="inlineStr"/>
-      <c r="GB7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5539,7 +6070,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cc400a2e-391c-4f34-b4bf-fef1b7524142</t>
+          <t>0b748401-f8ec-4af9-95c7-c8e1062bb800</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5562,7 +6093,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/cc400a2e391c4f34b4bffef1b7524142</t>
+          <t>https://www.notion.so/0b748401f8ec4af995c7c8e1062bb800</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -5696,7 +6227,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>[{'id': '6454d5e5-8a20-473b-a597-dc1973dd1e0e'}]</t>
+          <t>[{'id': '90bc02c2-bd1e-4c33-884a-38a1db528c78'}]</t>
         </is>
       </c>
       <c r="AR8" t="b">
@@ -6058,6 +6589,15 @@
       <c r="FZ8" t="inlineStr"/>
       <c r="GA8" t="inlineStr"/>
       <c r="GB8" t="inlineStr"/>
+      <c r="GC8" t="inlineStr"/>
+      <c r="GD8" t="inlineStr"/>
+      <c r="GE8" t="inlineStr"/>
+      <c r="GF8" t="inlineStr"/>
+      <c r="GG8" t="inlineStr"/>
+      <c r="GH8" t="inlineStr"/>
+      <c r="GI8" t="inlineStr"/>
+      <c r="GJ8" t="inlineStr"/>
+      <c r="GK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6067,17 +6607,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01e906bf-ee43-4ef7-b602-79ba6e8bde6d</t>
+          <t>cc400a2e-391c-4f34-b4bf-fef1b7524142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-06T10:33:00.000Z</t>
+          <t>2024-07-08T16:50:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-06T10:33:00.000Z</t>
+          <t>2024-07-08T16:50:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -6090,7 +6630,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/01e906bfee434ef7b60279ba6e8bde6d</t>
+          <t>https://www.notion.so/cc400a2e391c4f34b4bffef1b7524142</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -6224,7 +6764,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
+          <t>[{'id': '6454d5e5-8a20-473b-a597-dc1973dd1e0e'}]</t>
         </is>
       </c>
       <c r="AR9" t="b">
@@ -6489,7 +7029,7 @@
       </c>
       <c r="DJ9" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK9" t="inlineStr">
@@ -6586,6 +7126,15 @@
       <c r="FZ9" t="inlineStr"/>
       <c r="GA9" t="inlineStr"/>
       <c r="GB9" t="inlineStr"/>
+      <c r="GC9" t="inlineStr"/>
+      <c r="GD9" t="inlineStr"/>
+      <c r="GE9" t="inlineStr"/>
+      <c r="GF9" t="inlineStr"/>
+      <c r="GG9" t="inlineStr"/>
+      <c r="GH9" t="inlineStr"/>
+      <c r="GI9" t="inlineStr"/>
+      <c r="GJ9" t="inlineStr"/>
+      <c r="GK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6595,17 +7144,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0d5e3a14-348b-4faf-bca7-c1d26251d9f4</t>
+          <t>01e906bf-ee43-4ef7-b602-79ba6e8bde6d</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-30T08:14:00.000Z</t>
+          <t>2024-07-06T10:33:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-02T15:21:00.000Z</t>
+          <t>2024-07-06T10:33:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -6618,7 +7167,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/0d5e3a14348b4fafbca7c1d26251d9f4</t>
+          <t>https://www.notion.so/01e906bfee434ef7b60279ba6e8bde6d</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -6752,7 +7301,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
+          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
         </is>
       </c>
       <c r="AR10" t="b">
@@ -7114,6 +7663,15 @@
       <c r="FZ10" t="inlineStr"/>
       <c r="GA10" t="inlineStr"/>
       <c r="GB10" t="inlineStr"/>
+      <c r="GC10" t="inlineStr"/>
+      <c r="GD10" t="inlineStr"/>
+      <c r="GE10" t="inlineStr"/>
+      <c r="GF10" t="inlineStr"/>
+      <c r="GG10" t="inlineStr"/>
+      <c r="GH10" t="inlineStr"/>
+      <c r="GI10" t="inlineStr"/>
+      <c r="GJ10" t="inlineStr"/>
+      <c r="GK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7123,7 +7681,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1d70a1f8-9b3e-40b3-a9bf-5c6b880367c0</t>
+          <t>0d5e3a14-348b-4faf-bca7-c1d26251d9f4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7133,7 +7691,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-16T10:35:00.000Z</t>
+          <t>2024-07-02T15:21:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -7146,7 +7704,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1d70a1f89b3e40b3a9bf5c6b880367c0</t>
+          <t>https://www.notion.so/0d5e3a14348b4fafbca7c1d26251d9f4</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -7167,7 +7725,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7280,7 +7838,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
+          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
         </is>
       </c>
       <c r="AR11" t="b">
@@ -7545,7 +8103,7 @@
       </c>
       <c r="DJ11" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK11" t="inlineStr">
@@ -7618,21 +8176,9 @@
       <c r="FB11" t="inlineStr"/>
       <c r="FC11" t="inlineStr"/>
       <c r="FD11" t="inlineStr"/>
-      <c r="FE11" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF11" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG11" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="FE11" t="inlineStr"/>
+      <c r="FF11" t="inlineStr"/>
+      <c r="FG11" t="inlineStr"/>
       <c r="FH11" t="inlineStr"/>
       <c r="FI11" t="inlineStr"/>
       <c r="FJ11" t="inlineStr"/>
@@ -7654,6 +8200,15 @@
       <c r="FZ11" t="inlineStr"/>
       <c r="GA11" t="inlineStr"/>
       <c r="GB11" t="inlineStr"/>
+      <c r="GC11" t="inlineStr"/>
+      <c r="GD11" t="inlineStr"/>
+      <c r="GE11" t="inlineStr"/>
+      <c r="GF11" t="inlineStr"/>
+      <c r="GG11" t="inlineStr"/>
+      <c r="GH11" t="inlineStr"/>
+      <c r="GI11" t="inlineStr"/>
+      <c r="GJ11" t="inlineStr"/>
+      <c r="GK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7663,7 +8218,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2fcf8152-6491-4282-867c-66c3a142329b</t>
+          <t>1d70a1f8-9b3e-40b3-a9bf-5c6b880367c0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7673,7 +8228,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-02T15:22:00.000Z</t>
+          <t>2024-07-16T10:35:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -7686,7 +8241,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2fcf815264914282867c66c3a142329b</t>
+          <t>https://www.notion.so/1d70a1f89b3e40b3a9bf5c6b880367c0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -7707,7 +8262,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7820,7 +8375,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
+          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
         </is>
       </c>
       <c r="AR12" t="b">
@@ -8164,9 +8719,21 @@
       <c r="FH12" t="inlineStr"/>
       <c r="FI12" t="inlineStr"/>
       <c r="FJ12" t="inlineStr"/>
-      <c r="FK12" t="inlineStr"/>
-      <c r="FL12" t="inlineStr"/>
-      <c r="FM12" t="inlineStr"/>
+      <c r="FK12" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL12" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM12" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="FN12" t="inlineStr"/>
       <c r="FO12" t="inlineStr"/>
       <c r="FP12" t="inlineStr"/>
@@ -8182,6 +8749,15 @@
       <c r="FZ12" t="inlineStr"/>
       <c r="GA12" t="inlineStr"/>
       <c r="GB12" t="inlineStr"/>
+      <c r="GC12" t="inlineStr"/>
+      <c r="GD12" t="inlineStr"/>
+      <c r="GE12" t="inlineStr"/>
+      <c r="GF12" t="inlineStr"/>
+      <c r="GG12" t="inlineStr"/>
+      <c r="GH12" t="inlineStr"/>
+      <c r="GI12" t="inlineStr"/>
+      <c r="GJ12" t="inlineStr"/>
+      <c r="GK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8191,7 +8767,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6257ac53-faca-4a70-acf4-d671e78df2bc</t>
+          <t>2fcf8152-6491-4282-867c-66c3a142329b</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -8201,7 +8777,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-22T14:35:00.000Z</t>
+          <t>2024-07-02T15:22:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -8214,7 +8790,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6257ac53faca4a70acf4d671e78df2bc</t>
+          <t>https://www.notion.so/2fcf815264914282867c66c3a142329b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -8235,7 +8811,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -8348,7 +8924,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
+          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
         </is>
       </c>
       <c r="AR13" t="b">
@@ -8613,7 +9189,7 @@
       </c>
       <c r="DJ13" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK13" t="inlineStr">
@@ -8647,321 +9223,78 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DU13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DV13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DW13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DX13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV13" t="inlineStr">
-        <is>
-          <t>VRLp</t>
-        </is>
-      </c>
-      <c r="EW13" t="inlineStr">
-        <is>
-          <t>Nghỉ có phép</t>
-        </is>
-      </c>
-      <c r="EX13" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="EY13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EZ13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FA13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FB13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK13" t="inlineStr">
-        <is>
-          <t>VRLp</t>
-        </is>
-      </c>
-      <c r="FL13" t="inlineStr">
-        <is>
-          <t>Nghỉ có phép</t>
-        </is>
-      </c>
-      <c r="FM13" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="FN13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FT13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FU13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FV13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FW13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FX13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FY13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FZ13" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GA13" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GB13" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr"/>
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr"/>
+      <c r="DV13" t="inlineStr"/>
+      <c r="DW13" t="inlineStr"/>
+      <c r="DX13" t="inlineStr"/>
+      <c r="DY13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr"/>
+      <c r="EA13" t="inlineStr"/>
+      <c r="EB13" t="inlineStr"/>
+      <c r="EC13" t="inlineStr"/>
+      <c r="ED13" t="inlineStr"/>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr"/>
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr"/>
+      <c r="EK13" t="inlineStr"/>
+      <c r="EL13" t="inlineStr"/>
+      <c r="EM13" t="inlineStr"/>
+      <c r="EN13" t="inlineStr"/>
+      <c r="EO13" t="inlineStr"/>
+      <c r="EP13" t="inlineStr"/>
+      <c r="EQ13" t="inlineStr"/>
+      <c r="ER13" t="inlineStr"/>
+      <c r="ES13" t="inlineStr"/>
+      <c r="ET13" t="inlineStr"/>
+      <c r="EU13" t="inlineStr"/>
+      <c r="EV13" t="inlineStr"/>
+      <c r="EW13" t="inlineStr"/>
+      <c r="EX13" t="inlineStr"/>
+      <c r="EY13" t="inlineStr"/>
+      <c r="EZ13" t="inlineStr"/>
+      <c r="FA13" t="inlineStr"/>
+      <c r="FB13" t="inlineStr"/>
+      <c r="FC13" t="inlineStr"/>
+      <c r="FD13" t="inlineStr"/>
+      <c r="FE13" t="inlineStr"/>
+      <c r="FF13" t="inlineStr"/>
+      <c r="FG13" t="inlineStr"/>
+      <c r="FH13" t="inlineStr"/>
+      <c r="FI13" t="inlineStr"/>
+      <c r="FJ13" t="inlineStr"/>
+      <c r="FK13" t="inlineStr"/>
+      <c r="FL13" t="inlineStr"/>
+      <c r="FM13" t="inlineStr"/>
+      <c r="FN13" t="inlineStr"/>
+      <c r="FO13" t="inlineStr"/>
+      <c r="FP13" t="inlineStr"/>
+      <c r="FQ13" t="inlineStr"/>
+      <c r="FR13" t="inlineStr"/>
+      <c r="FS13" t="inlineStr"/>
+      <c r="FT13" t="inlineStr"/>
+      <c r="FU13" t="inlineStr"/>
+      <c r="FV13" t="inlineStr"/>
+      <c r="FW13" t="inlineStr"/>
+      <c r="FX13" t="inlineStr"/>
+      <c r="FY13" t="inlineStr"/>
+      <c r="FZ13" t="inlineStr"/>
+      <c r="GA13" t="inlineStr"/>
+      <c r="GB13" t="inlineStr"/>
+      <c r="GC13" t="inlineStr"/>
+      <c r="GD13" t="inlineStr"/>
+      <c r="GE13" t="inlineStr"/>
+      <c r="GF13" t="inlineStr"/>
+      <c r="GG13" t="inlineStr"/>
+      <c r="GH13" t="inlineStr"/>
+      <c r="GI13" t="inlineStr"/>
+      <c r="GJ13" t="inlineStr"/>
+      <c r="GK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8971,7 +9304,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6fb1d9e9-6643-4e21-a990-706bb7368124</t>
+          <t>6257ac53-faca-4a70-acf4-d671e78df2bc</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8981,7 +9314,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-22T14:35:00.000Z</t>
+          <t>2024-07-24T15:38:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -8994,7 +9327,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6fb1d9e966434e21a990706bb7368124</t>
+          <t>https://www.notion.so/6257ac53faca4a70acf4d671e78df2bc</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -9128,7 +9461,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
+          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
         </is>
       </c>
       <c r="AR14" t="b">
@@ -9489,214 +9822,214 @@
       </c>
       <c r="ED14" t="inlineStr">
         <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY14" t="inlineStr">
+        <is>
           <t>VRLp</t>
         </is>
       </c>
-      <c r="EE14" t="inlineStr">
+      <c r="EZ14" t="inlineStr">
         <is>
           <t>Nghỉ có phép</t>
         </is>
       </c>
-      <c r="EF14" t="inlineStr">
+      <c r="FA14" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="EG14" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH14" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI14" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ14" t="inlineStr">
+      <c r="FB14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ14" t="inlineStr">
         <is>
           <t>VRLp</t>
         </is>
       </c>
-      <c r="EK14" t="inlineStr">
+      <c r="FR14" t="inlineStr">
         <is>
           <t>Nghỉ có phép</t>
         </is>
       </c>
-      <c r="EL14" t="inlineStr">
+      <c r="FS14" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="EM14" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN14" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO14" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP14" t="inlineStr">
-        <is>
-          <t>VRLp</t>
-        </is>
-      </c>
-      <c r="EQ14" t="inlineStr">
-        <is>
-          <t>Nghỉ có phép</t>
-        </is>
-      </c>
-      <c r="ER14" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="ES14" t="inlineStr">
-        <is>
-          <t>Oc}V</t>
-        </is>
-      </c>
-      <c r="ET14" t="inlineStr">
-        <is>
-          <t>Nửa ngày</t>
-        </is>
-      </c>
-      <c r="EU14" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="EV14" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW14" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX14" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EY14" t="inlineStr">
-        <is>
-          <t>VRLp</t>
-        </is>
-      </c>
-      <c r="EZ14" t="inlineStr">
-        <is>
-          <t>Nghỉ có phép</t>
-        </is>
-      </c>
-      <c r="FA14" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="FB14" t="inlineStr">
-        <is>
-          <t>tx_o</t>
-        </is>
-      </c>
-      <c r="FC14" t="inlineStr">
-        <is>
-          <t>Nửa ngày</t>
-        </is>
-      </c>
-      <c r="FD14" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="FE14" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF14" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG14" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH14" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI14" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ14" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK14" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL14" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM14" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN14" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO14" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP14" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ14" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR14" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS14" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
       <c r="FT14" t="inlineStr">
         <is>
           <t>DjwF</t>
@@ -9738,6 +10071,51 @@
         </is>
       </c>
       <c r="GB14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -9751,7 +10129,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>83351d0f-1472-40d0-8669-e49c5c16483d</t>
+          <t>6fb1d9e9-6643-4e21-a990-706bb7368124</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9761,7 +10139,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-02T17:35:00.000Z</t>
+          <t>2024-07-24T15:38:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -9774,7 +10152,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83351d0f147240d08669e49c5c16483d</t>
+          <t>https://www.notion.so/6fb1d9e966434e21a990706bb7368124</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -9795,7 +10173,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -9908,7 +10286,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
+          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
         </is>
       </c>
       <c r="AR15" t="b">
@@ -10173,7 +10551,7 @@
       </c>
       <c r="DJ15" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK15" t="inlineStr">
@@ -10207,69 +10585,366 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR15" t="inlineStr"/>
-      <c r="DS15" t="inlineStr"/>
-      <c r="DT15" t="inlineStr"/>
-      <c r="DU15" t="inlineStr"/>
-      <c r="DV15" t="inlineStr"/>
-      <c r="DW15" t="inlineStr"/>
-      <c r="DX15" t="inlineStr"/>
-      <c r="DY15" t="inlineStr"/>
-      <c r="DZ15" t="inlineStr"/>
-      <c r="EA15" t="inlineStr"/>
-      <c r="EB15" t="inlineStr"/>
-      <c r="EC15" t="inlineStr"/>
-      <c r="ED15" t="inlineStr"/>
-      <c r="EE15" t="inlineStr"/>
-      <c r="EF15" t="inlineStr"/>
-      <c r="EG15" t="inlineStr"/>
-      <c r="EH15" t="inlineStr"/>
-      <c r="EI15" t="inlineStr"/>
-      <c r="EJ15" t="inlineStr"/>
-      <c r="EK15" t="inlineStr"/>
-      <c r="EL15" t="inlineStr"/>
-      <c r="EM15" t="inlineStr"/>
-      <c r="EN15" t="inlineStr"/>
-      <c r="EO15" t="inlineStr"/>
-      <c r="EP15" t="inlineStr"/>
-      <c r="EQ15" t="inlineStr"/>
-      <c r="ER15" t="inlineStr"/>
-      <c r="ES15" t="inlineStr"/>
-      <c r="ET15" t="inlineStr"/>
-      <c r="EU15" t="inlineStr"/>
-      <c r="EV15" t="inlineStr"/>
-      <c r="EW15" t="inlineStr"/>
-      <c r="EX15" t="inlineStr"/>
-      <c r="EY15" t="inlineStr"/>
-      <c r="EZ15" t="inlineStr"/>
-      <c r="FA15" t="inlineStr"/>
-      <c r="FB15" t="inlineStr"/>
-      <c r="FC15" t="inlineStr"/>
-      <c r="FD15" t="inlineStr"/>
-      <c r="FE15" t="inlineStr"/>
-      <c r="FF15" t="inlineStr"/>
-      <c r="FG15" t="inlineStr"/>
-      <c r="FH15" t="inlineStr"/>
-      <c r="FI15" t="inlineStr"/>
-      <c r="FJ15" t="inlineStr"/>
-      <c r="FK15" t="inlineStr"/>
-      <c r="FL15" t="inlineStr"/>
-      <c r="FM15" t="inlineStr"/>
-      <c r="FN15" t="inlineStr"/>
-      <c r="FO15" t="inlineStr"/>
-      <c r="FP15" t="inlineStr"/>
-      <c r="FQ15" t="inlineStr"/>
-      <c r="FR15" t="inlineStr"/>
-      <c r="FS15" t="inlineStr"/>
-      <c r="FT15" t="inlineStr"/>
-      <c r="FU15" t="inlineStr"/>
-      <c r="FV15" t="inlineStr"/>
-      <c r="FW15" t="inlineStr"/>
-      <c r="FX15" t="inlineStr"/>
-      <c r="FY15" t="inlineStr"/>
-      <c r="FZ15" t="inlineStr"/>
-      <c r="GA15" t="inlineStr"/>
-      <c r="GB15" t="inlineStr"/>
+      <c r="DR15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED15" t="inlineStr">
+        <is>
+          <t>ruIx</t>
+        </is>
+      </c>
+      <c r="EE15" t="inlineStr">
+        <is>
+          <t>Nghỉ không phép</t>
+        </is>
+      </c>
+      <c r="EF15" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="EG15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>ruIx</t>
+        </is>
+      </c>
+      <c r="EK15" t="inlineStr">
+        <is>
+          <t>Nghỉ không phép</t>
+        </is>
+      </c>
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP15" t="inlineStr">
+        <is>
+          <t>VRLp</t>
+        </is>
+      </c>
+      <c r="EQ15" t="inlineStr">
+        <is>
+          <t>Nghỉ có phép</t>
+        </is>
+      </c>
+      <c r="ER15" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="ES15" t="inlineStr">
+        <is>
+          <t>Oc}V</t>
+        </is>
+      </c>
+      <c r="ET15" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="EU15" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE15" t="inlineStr">
+        <is>
+          <t>VRLp</t>
+        </is>
+      </c>
+      <c r="FF15" t="inlineStr">
+        <is>
+          <t>Nghỉ có phép</t>
+        </is>
+      </c>
+      <c r="FG15" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="FH15" t="inlineStr">
+        <is>
+          <t>tx_o</t>
+        </is>
+      </c>
+      <c r="FI15" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="FJ15" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="FK15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10279,7 +10954,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8f7aa3af-ad5c-4495-a2dc-a776969b5654</t>
+          <t>83351d0f-1472-40d0-8669-e49c5c16483d</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -10289,7 +10964,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-22T14:35:00.000Z</t>
+          <t>2024-07-02T17:35:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -10302,7 +10977,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8f7aa3afad5c4495a2dca776969b5654</t>
+          <t>https://www.notion.so/83351d0f147240d08669e49c5c16483d</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -10323,7 +10998,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -10436,7 +11111,7 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
+          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
         </is>
       </c>
       <c r="AR16" t="b">
@@ -10701,7 +11376,7 @@
       </c>
       <c r="DJ16" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK16" t="inlineStr">
@@ -10735,321 +11410,78 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DU16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DV16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DW16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DX16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EY16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EZ16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FA16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FB16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FT16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FU16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FV16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FW16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FX16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FY16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FZ16" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GA16" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GB16" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR16" t="inlineStr"/>
+      <c r="DS16" t="inlineStr"/>
+      <c r="DT16" t="inlineStr"/>
+      <c r="DU16" t="inlineStr"/>
+      <c r="DV16" t="inlineStr"/>
+      <c r="DW16" t="inlineStr"/>
+      <c r="DX16" t="inlineStr"/>
+      <c r="DY16" t="inlineStr"/>
+      <c r="DZ16" t="inlineStr"/>
+      <c r="EA16" t="inlineStr"/>
+      <c r="EB16" t="inlineStr"/>
+      <c r="EC16" t="inlineStr"/>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr"/>
+      <c r="EH16" t="inlineStr"/>
+      <c r="EI16" t="inlineStr"/>
+      <c r="EJ16" t="inlineStr"/>
+      <c r="EK16" t="inlineStr"/>
+      <c r="EL16" t="inlineStr"/>
+      <c r="EM16" t="inlineStr"/>
+      <c r="EN16" t="inlineStr"/>
+      <c r="EO16" t="inlineStr"/>
+      <c r="EP16" t="inlineStr"/>
+      <c r="EQ16" t="inlineStr"/>
+      <c r="ER16" t="inlineStr"/>
+      <c r="ES16" t="inlineStr"/>
+      <c r="ET16" t="inlineStr"/>
+      <c r="EU16" t="inlineStr"/>
+      <c r="EV16" t="inlineStr"/>
+      <c r="EW16" t="inlineStr"/>
+      <c r="EX16" t="inlineStr"/>
+      <c r="EY16" t="inlineStr"/>
+      <c r="EZ16" t="inlineStr"/>
+      <c r="FA16" t="inlineStr"/>
+      <c r="FB16" t="inlineStr"/>
+      <c r="FC16" t="inlineStr"/>
+      <c r="FD16" t="inlineStr"/>
+      <c r="FE16" t="inlineStr"/>
+      <c r="FF16" t="inlineStr"/>
+      <c r="FG16" t="inlineStr"/>
+      <c r="FH16" t="inlineStr"/>
+      <c r="FI16" t="inlineStr"/>
+      <c r="FJ16" t="inlineStr"/>
+      <c r="FK16" t="inlineStr"/>
+      <c r="FL16" t="inlineStr"/>
+      <c r="FM16" t="inlineStr"/>
+      <c r="FN16" t="inlineStr"/>
+      <c r="FO16" t="inlineStr"/>
+      <c r="FP16" t="inlineStr"/>
+      <c r="FQ16" t="inlineStr"/>
+      <c r="FR16" t="inlineStr"/>
+      <c r="FS16" t="inlineStr"/>
+      <c r="FT16" t="inlineStr"/>
+      <c r="FU16" t="inlineStr"/>
+      <c r="FV16" t="inlineStr"/>
+      <c r="FW16" t="inlineStr"/>
+      <c r="FX16" t="inlineStr"/>
+      <c r="FY16" t="inlineStr"/>
+      <c r="FZ16" t="inlineStr"/>
+      <c r="GA16" t="inlineStr"/>
+      <c r="GB16" t="inlineStr"/>
+      <c r="GC16" t="inlineStr"/>
+      <c r="GD16" t="inlineStr"/>
+      <c r="GE16" t="inlineStr"/>
+      <c r="GF16" t="inlineStr"/>
+      <c r="GG16" t="inlineStr"/>
+      <c r="GH16" t="inlineStr"/>
+      <c r="GI16" t="inlineStr"/>
+      <c r="GJ16" t="inlineStr"/>
+      <c r="GK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11059,7 +11491,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>af72204c-80db-4b17-8ee7-acad0fc14bf5</t>
+          <t>8f7aa3af-ad5c-4495-a2dc-a776969b5654</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -11069,7 +11501,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-22T14:35:00.000Z</t>
+          <t>2024-07-24T15:38:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -11082,7 +11514,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/af72204c80db4b178ee7acad0fc14bf5</t>
+          <t>https://www.notion.so/8f7aa3afad5c4495a2dca776969b5654</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -11216,7 +11648,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
+          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
         </is>
       </c>
       <c r="AR17" t="b">
@@ -11817,17 +12249,62 @@
       </c>
       <c r="FZ17" t="inlineStr">
         <is>
-          <t>VRLp</t>
+          <t>DjwF</t>
         </is>
       </c>
       <c r="GA17" t="inlineStr">
         <is>
-          <t>Nghỉ có phép</t>
+          <t>Đầy đủ</t>
         </is>
       </c>
       <c r="GB17" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK17" t="inlineStr">
+        <is>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -11839,7 +12316,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ddf48f66-653c-4231-8042-f2055a64f774</t>
+          <t>af72204c-80db-4b17-8ee7-acad0fc14bf5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -11849,7 +12326,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-02T15:22:00.000Z</t>
+          <t>2024-07-24T15:38:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -11862,7 +12339,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ddf48f66653c42318042f2055a64f774</t>
+          <t>https://www.notion.so/af72204c80db4b178ee7acad0fc14bf5</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -11883,7 +12360,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -11996,7 +12473,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
+          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
         </is>
       </c>
       <c r="AR18" t="b">
@@ -12261,7 +12738,7 @@
       </c>
       <c r="DJ18" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK18" t="inlineStr">
@@ -12295,69 +12772,366 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR18" t="inlineStr"/>
-      <c r="DS18" t="inlineStr"/>
-      <c r="DT18" t="inlineStr"/>
-      <c r="DU18" t="inlineStr"/>
-      <c r="DV18" t="inlineStr"/>
-      <c r="DW18" t="inlineStr"/>
-      <c r="DX18" t="inlineStr"/>
-      <c r="DY18" t="inlineStr"/>
-      <c r="DZ18" t="inlineStr"/>
-      <c r="EA18" t="inlineStr"/>
-      <c r="EB18" t="inlineStr"/>
-      <c r="EC18" t="inlineStr"/>
-      <c r="ED18" t="inlineStr"/>
-      <c r="EE18" t="inlineStr"/>
-      <c r="EF18" t="inlineStr"/>
-      <c r="EG18" t="inlineStr"/>
-      <c r="EH18" t="inlineStr"/>
-      <c r="EI18" t="inlineStr"/>
-      <c r="EJ18" t="inlineStr"/>
-      <c r="EK18" t="inlineStr"/>
-      <c r="EL18" t="inlineStr"/>
-      <c r="EM18" t="inlineStr"/>
-      <c r="EN18" t="inlineStr"/>
-      <c r="EO18" t="inlineStr"/>
-      <c r="EP18" t="inlineStr"/>
-      <c r="EQ18" t="inlineStr"/>
-      <c r="ER18" t="inlineStr"/>
-      <c r="ES18" t="inlineStr"/>
-      <c r="ET18" t="inlineStr"/>
-      <c r="EU18" t="inlineStr"/>
-      <c r="EV18" t="inlineStr"/>
-      <c r="EW18" t="inlineStr"/>
-      <c r="EX18" t="inlineStr"/>
-      <c r="EY18" t="inlineStr"/>
-      <c r="EZ18" t="inlineStr"/>
-      <c r="FA18" t="inlineStr"/>
-      <c r="FB18" t="inlineStr"/>
-      <c r="FC18" t="inlineStr"/>
-      <c r="FD18" t="inlineStr"/>
-      <c r="FE18" t="inlineStr"/>
-      <c r="FF18" t="inlineStr"/>
-      <c r="FG18" t="inlineStr"/>
-      <c r="FH18" t="inlineStr"/>
-      <c r="FI18" t="inlineStr"/>
-      <c r="FJ18" t="inlineStr"/>
-      <c r="FK18" t="inlineStr"/>
-      <c r="FL18" t="inlineStr"/>
-      <c r="FM18" t="inlineStr"/>
-      <c r="FN18" t="inlineStr"/>
-      <c r="FO18" t="inlineStr"/>
-      <c r="FP18" t="inlineStr"/>
-      <c r="FQ18" t="inlineStr"/>
-      <c r="FR18" t="inlineStr"/>
-      <c r="FS18" t="inlineStr"/>
-      <c r="FT18" t="inlineStr"/>
-      <c r="FU18" t="inlineStr"/>
-      <c r="FV18" t="inlineStr"/>
-      <c r="FW18" t="inlineStr"/>
-      <c r="FX18" t="inlineStr"/>
-      <c r="FY18" t="inlineStr"/>
-      <c r="FZ18" t="inlineStr"/>
-      <c r="GA18" t="inlineStr"/>
-      <c r="GB18" t="inlineStr"/>
+      <c r="DR18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI18" t="inlineStr">
+        <is>
+          <t>VRLp</t>
+        </is>
+      </c>
+      <c r="GJ18" t="inlineStr">
+        <is>
+          <t>Nghỉ có phép</t>
+        </is>
+      </c>
+      <c r="GK18" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12367,17 +13141,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>478c5419-85bd-4cf6-b4f0-17ebc8b5d273</t>
+          <t>ddf48f66-653c-4231-8042-f2055a64f774</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-30T08:07:00.000Z</t>
+          <t>2024-06-30T08:14:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-02T15:21:00.000Z</t>
+          <t>2024-07-02T15:22:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -12390,7 +13164,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/478c541985bd4cf6b4f017ebc8b5d273</t>
+          <t>https://www.notion.so/ddf48f66653c42318042f2055a64f774</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -12524,7 +13298,7 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
+          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
         </is>
       </c>
       <c r="AR19" t="b">
@@ -12789,7 +13563,7 @@
       </c>
       <c r="DJ19" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK19" t="inlineStr">
@@ -12886,6 +13660,15 @@
       <c r="FZ19" t="inlineStr"/>
       <c r="GA19" t="inlineStr"/>
       <c r="GB19" t="inlineStr"/>
+      <c r="GC19" t="inlineStr"/>
+      <c r="GD19" t="inlineStr"/>
+      <c r="GE19" t="inlineStr"/>
+      <c r="GF19" t="inlineStr"/>
+      <c r="GG19" t="inlineStr"/>
+      <c r="GH19" t="inlineStr"/>
+      <c r="GI19" t="inlineStr"/>
+      <c r="GJ19" t="inlineStr"/>
+      <c r="GK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12895,7 +13678,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>52e54a01-883f-4b17-8181-0db1df927d3f</t>
+          <t>478c5419-85bd-4cf6-b4f0-17ebc8b5d273</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -12905,7 +13688,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-06T07:40:00.000Z</t>
+          <t>2024-07-02T15:21:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -12918,7 +13701,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52e54a01883f4b1781810db1df927d3f</t>
+          <t>https://www.notion.so/478c541985bd4cf6b4f017ebc8b5d273</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -13052,7 +13835,7 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
+          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
         </is>
       </c>
       <c r="AR20" t="b">
@@ -13414,6 +14197,15 @@
       <c r="FZ20" t="inlineStr"/>
       <c r="GA20" t="inlineStr"/>
       <c r="GB20" t="inlineStr"/>
+      <c r="GC20" t="inlineStr"/>
+      <c r="GD20" t="inlineStr"/>
+      <c r="GE20" t="inlineStr"/>
+      <c r="GF20" t="inlineStr"/>
+      <c r="GG20" t="inlineStr"/>
+      <c r="GH20" t="inlineStr"/>
+      <c r="GI20" t="inlineStr"/>
+      <c r="GJ20" t="inlineStr"/>
+      <c r="GK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13423,7 +14215,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>d3c84516-20a0-4f9a-9895-85cd38b24c79</t>
+          <t>52e54a01-883f-4b17-8181-0db1df927d3f</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -13433,7 +14225,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-22T14:35:00.000Z</t>
+          <t>2024-07-06T07:40:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -13446,7 +14238,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/d3c8451620a04f9a989585cd38b24c79</t>
+          <t>https://www.notion.so/52e54a01883f4b1781810db1df927d3f</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -13467,7 +14259,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -13580,7 +14372,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
+          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
         </is>
       </c>
       <c r="AR21" t="b">
@@ -13845,7 +14637,7 @@
       </c>
       <c r="DJ21" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK21" t="inlineStr">
@@ -13879,317 +14671,899 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR21" t="inlineStr">
+      <c r="DR21" t="inlineStr"/>
+      <c r="DS21" t="inlineStr"/>
+      <c r="DT21" t="inlineStr"/>
+      <c r="DU21" t="inlineStr"/>
+      <c r="DV21" t="inlineStr"/>
+      <c r="DW21" t="inlineStr"/>
+      <c r="DX21" t="inlineStr"/>
+      <c r="DY21" t="inlineStr"/>
+      <c r="DZ21" t="inlineStr"/>
+      <c r="EA21" t="inlineStr"/>
+      <c r="EB21" t="inlineStr"/>
+      <c r="EC21" t="inlineStr"/>
+      <c r="ED21" t="inlineStr"/>
+      <c r="EE21" t="inlineStr"/>
+      <c r="EF21" t="inlineStr"/>
+      <c r="EG21" t="inlineStr"/>
+      <c r="EH21" t="inlineStr"/>
+      <c r="EI21" t="inlineStr"/>
+      <c r="EJ21" t="inlineStr"/>
+      <c r="EK21" t="inlineStr"/>
+      <c r="EL21" t="inlineStr"/>
+      <c r="EM21" t="inlineStr"/>
+      <c r="EN21" t="inlineStr"/>
+      <c r="EO21" t="inlineStr"/>
+      <c r="EP21" t="inlineStr"/>
+      <c r="EQ21" t="inlineStr"/>
+      <c r="ER21" t="inlineStr"/>
+      <c r="ES21" t="inlineStr"/>
+      <c r="ET21" t="inlineStr"/>
+      <c r="EU21" t="inlineStr"/>
+      <c r="EV21" t="inlineStr"/>
+      <c r="EW21" t="inlineStr"/>
+      <c r="EX21" t="inlineStr"/>
+      <c r="EY21" t="inlineStr"/>
+      <c r="EZ21" t="inlineStr"/>
+      <c r="FA21" t="inlineStr"/>
+      <c r="FB21" t="inlineStr"/>
+      <c r="FC21" t="inlineStr"/>
+      <c r="FD21" t="inlineStr"/>
+      <c r="FE21" t="inlineStr"/>
+      <c r="FF21" t="inlineStr"/>
+      <c r="FG21" t="inlineStr"/>
+      <c r="FH21" t="inlineStr"/>
+      <c r="FI21" t="inlineStr"/>
+      <c r="FJ21" t="inlineStr"/>
+      <c r="FK21" t="inlineStr"/>
+      <c r="FL21" t="inlineStr"/>
+      <c r="FM21" t="inlineStr"/>
+      <c r="FN21" t="inlineStr"/>
+      <c r="FO21" t="inlineStr"/>
+      <c r="FP21" t="inlineStr"/>
+      <c r="FQ21" t="inlineStr"/>
+      <c r="FR21" t="inlineStr"/>
+      <c r="FS21" t="inlineStr"/>
+      <c r="FT21" t="inlineStr"/>
+      <c r="FU21" t="inlineStr"/>
+      <c r="FV21" t="inlineStr"/>
+      <c r="FW21" t="inlineStr"/>
+      <c r="FX21" t="inlineStr"/>
+      <c r="FY21" t="inlineStr"/>
+      <c r="FZ21" t="inlineStr"/>
+      <c r="GA21" t="inlineStr"/>
+      <c r="GB21" t="inlineStr"/>
+      <c r="GC21" t="inlineStr"/>
+      <c r="GD21" t="inlineStr"/>
+      <c r="GE21" t="inlineStr"/>
+      <c r="GF21" t="inlineStr"/>
+      <c r="GG21" t="inlineStr"/>
+      <c r="GH21" t="inlineStr"/>
+      <c r="GI21" t="inlineStr"/>
+      <c r="GJ21" t="inlineStr"/>
+      <c r="GK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>d3c84516-20a0-4f9a-9895-85cd38b24c79</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-06-30T08:07:00.000Z</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-07-24T15:38:00.000Z</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/d3c8451620a04f9a989585cd38b24c79</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>81b74158-1c2e-4c3a-a685-ce6602d70cd7</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
+        </is>
+      </c>
+      <c r="AR22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr"/>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr"/>
+      <c r="CX22" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ22" t="inlineStr"/>
+      <c r="DA22" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC22" t="inlineStr"/>
+      <c r="DD22" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF22" t="inlineStr"/>
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ22" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+        </is>
+      </c>
+      <c r="DK22" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL22" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN22" t="inlineStr"/>
+      <c r="DO22" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP22" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR22" t="inlineStr">
         <is>
           <t>qobr</t>
         </is>
       </c>
-      <c r="DS21" t="inlineStr">
+      <c r="DS22" t="inlineStr">
         <is>
           <t>Nửa ngày</t>
         </is>
       </c>
-      <c r="DT21" t="inlineStr">
+      <c r="DT22" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="DU21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DV21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DW21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DX21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA21" t="inlineStr">
+      <c r="DU22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA22" t="inlineStr">
         <is>
           <t>vMRC</t>
         </is>
       </c>
-      <c r="EB21" t="inlineStr">
+      <c r="EB22" t="inlineStr">
         <is>
           <t>Nửa ngày</t>
         </is>
       </c>
-      <c r="EC21" t="inlineStr">
+      <c r="EC22" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="ED21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EY21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EZ21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FA21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FB21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK21" t="inlineStr">
+      <c r="ED22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV22" t="inlineStr">
+        <is>
+          <t>hWcO</t>
+        </is>
+      </c>
+      <c r="EW22" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="EX22" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="EY22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ22" t="inlineStr">
         <is>
           <t>VRLp</t>
         </is>
       </c>
-      <c r="FL21" t="inlineStr">
+      <c r="FR22" t="inlineStr">
         <is>
           <t>Nghỉ có phép</t>
         </is>
       </c>
-      <c r="FM21" t="inlineStr">
+      <c r="FS22" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="FN21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FT21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FU21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FV21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FW21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FX21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FY21" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FZ21" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GA21" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GB21" t="inlineStr">
+      <c r="FT22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI22" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ22" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK22" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
